--- a/Ilya_N/Исследование уксус.xlsx
+++ b/Ilya_N/Исследование уксус.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Научная работа ИТ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\OdorCalculator\Ilya_N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C005A0-59A2-4ED9-9902-6D55FCDB271B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FBE0B-DED2-440C-8B98-77C690F627EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30816" yWindow="-3744" windowWidth="12972" windowHeight="15588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исследование" sheetId="1" r:id="rId1"/>
     <sheet name="Результаты" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -150,7 +159,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -246,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,7 +266,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -312,6 +321,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,19 +606,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.1015625" customWidth="1"/>
-    <col min="5" max="5" width="16.05078125" customWidth="1"/>
-    <col min="7" max="7" width="22.05078125" customWidth="1"/>
-    <col min="8" max="8" width="16.9453125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>37</v>
@@ -618,7 +630,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -644,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -660,7 +672,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -678,7 +690,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -696,7 +708,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -714,7 +726,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -732,7 +744,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -750,7 +762,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -768,12 +780,12 @@
       <c r="G9" s="3"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="E10" s="28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>38</v>
@@ -785,7 +797,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -811,14 +823,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" s="3">
         <v>12500</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="29">
         <v>4.0969100130080562</v>
       </c>
       <c r="D16" s="7"/>
@@ -827,7 +839,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -849,7 +861,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -869,7 +881,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -889,7 +901,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -911,7 +923,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -931,7 +943,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -949,15 +961,15 @@
       <c r="G22" s="3"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="E23" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:8" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:8" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>36</v>
       </c>
@@ -965,6 +977,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -972,20 +985,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B69621-E114-41F9-ACB7-E6FD2F8281FB}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.68359375" customWidth="1"/>
-    <col min="2" max="2" width="14.3671875" customWidth="1"/>
-    <col min="3" max="3" width="12.47265625" customWidth="1"/>
-    <col min="4" max="4" width="16.68359375" customWidth="1"/>
-    <col min="5" max="5" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1010,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
       <c r="B2" s="21" t="s">
         <v>20</v>
@@ -1013,7 +1026,7 @@
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="21" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1036,7 @@
       <c r="E3" s="17"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:6" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -1041,7 +1054,7 @@
       </c>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
@@ -1059,7 +1072,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>29</v>
       </c>
